--- a/data/trans_camb/P55_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P55_5-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -555,287 +564,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.411695153972392</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.892900249946419</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.760664004307229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,95; 51,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 32,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,96; 31,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-33.02509587678728</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.43192118515242</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.61732039978897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>26,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,91%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>56.24239275111723</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.34554799466155</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>33.59213325715346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-89,74; 322,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-70,52; 488,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-72,15; 210,99</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2083859578101133</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1207200284696793</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1505921448097301</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.8849375181482939</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.7359399041709039</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6987689499877482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,51; 3,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 5,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,67; 2,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3.523942607832034</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>4.138807808101611</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.185192571048024</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-38,19%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-26,09%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.75427180403562</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.400273829134796</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.615387485326237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-77,92; 31,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-54,74; 62,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-60,34; 27,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.81398830556131</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.684082819931778</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.52965700525074</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.876226378756581</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.706247135988884</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.758891216198081</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 4,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 3,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 2,73</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.3742184691530748</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1135602852348262</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.2604198284252269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-22,22%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,97%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-18,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.7828459941624839</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.5510772236570285</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6046579602718168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-76,69; 123,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-78,85; 209,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-63,63; 75,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3094500077060574</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.646009046826706</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2726858690977776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -843,202 +776,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.507221829354465</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.3291122636859406</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.8462228412829946</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.515879337414347</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.700500809623201</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.274893662088451</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.198998935110744</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.715152848645004</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.062660006561071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1964774895445394</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.08827931959377243</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1526762157774221</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.7629846227601114</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.7742861410432545</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.6356185579739151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 12,36</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 8,16</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; 6,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.474760458525467</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.245528169895217</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.858891890687387</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-13,51%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-5,94%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.603893982349577</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03229461016493324</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.7769138766928432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-61,2; 115,83</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-37,18; 110,57</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 62,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.09263580718723</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.717301126318003</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.675518643057273</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.88478075096991</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.112178297134399</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.055554878992931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1032686918572407</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.003398552401844831</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06251882388206799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5972348299097701</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4158168371372647</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.4429168323557316</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.215283411245089</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.8104286824846836</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6234196619121741</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
